--- a/excel/testexcel.xlsx
+++ b/excel/testexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8450" uniqueCount="6024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8454" uniqueCount="6028">
   <si>
     <t>key</t>
   </si>
@@ -18093,6 +18093,18 @@
   </si>
   <si>
     <t>ใช่ ฉันยอมรับ</t>
+  </si>
+  <si>
+    <t>kkkk</t>
+  </si>
+  <si>
+    <t>fdfdf</t>
+  </si>
+  <si>
+    <t>dfdf</t>
+  </si>
+  <si>
+    <t>df</t>
   </si>
 </sst>
 </file>
@@ -18100,10 +18112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -18136,18 +18148,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18160,17 +18165,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18183,22 +18180,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18237,9 +18218,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -18251,7 +18263,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -18286,7 +18298,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18298,43 +18352,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18346,49 +18376,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18406,6 +18394,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -18418,7 +18436,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18430,31 +18466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18486,6 +18498,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -18506,21 +18533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -18570,142 +18582,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -19038,10 +19050,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M650"/>
+  <dimension ref="A1:M651"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="C650" sqref="C650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -45711,6 +45723,20 @@
         <v>6023</v>
       </c>
     </row>
+    <row r="651" spans="1:4">
+      <c r="A651" t="s">
+        <v>6024</v>
+      </c>
+      <c r="B651" t="s">
+        <v>6025</v>
+      </c>
+      <c r="C651" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D651" t="s">
+        <v>6027</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
